--- a/biology/Médecine/Vopiscus_Fortunatus_Plempius/Vopiscus_Fortunatus_Plempius.xlsx
+++ b/biology/Médecine/Vopiscus_Fortunatus_Plempius/Vopiscus_Fortunatus_Plempius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vopiscus Fortunatus Plempius, né à Amsterdam en 1601 et mort à Louvain en 1671, est un médecin hollandais, contradicteur de Descartes et traducteur scientifique des textes d'Avicenne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né d'une césarienne, d'où son surnom de Fortunatus, Plempius est le fils, posthume, d'une mère morte en couches et d'un père, patricien hollandais, aux sympathies catholiques.
 Plempius, après avoir fait ses études chez les jésuites de Gand, au collège du Faucon de Louvain, à l'université de Leyde et à Bologne, où il obtint le grade de docteur en 1623, devint professeur à Amsterdam en 1633. Anatomiste, il eut comme collègue Nikolaas Tulp, le médecin portraituré par Rembrandt van Rijn dans sa leçon d'anatomie.
@@ -521,10 +535,10 @@
 Plempius rencontra Descartes à Amsterdam de nombreuses fois (chez un marchand de draps de la Kalverstraat)
 En 1633, Plempius fut appelé par l'archiduchesse Isabelle à venir enseigner à Louvain dans les Pays-Bas méridionaux, afin de succéder au professeur Jan Van den Broeck.
 En 1638, il publia ses cours sous le nom de Fundamenta seu Institutiones Medicinae calqué sur l'ordre établi par Avicenne.
-Plempius n'admit la circulation du sang qu'en 1647. C'est à George Ent[1] et à Descartes qu'on doit sa conversation. Il dépassa néanmoins son maître en proposant, d'après Annie Bitbol, une interprétation rationnelle du phénomène[2] en affirmant en 1654 : 
+Plempius n'admit la circulation du sang qu'en 1647. C'est à George Ent et à Descartes qu'on doit sa conversation. Il dépassa néanmoins son maître en proposant, d'après Annie Bitbol, une interprétation rationnelle du phénomène en affirmant en 1654 : 
 « Le mouvement du cœur repose dans sa faculté pulsative et non pas dans la chaleur (fervore) du sang comme le prétendent Artistote et Descartes. »
 Plempius mourut le 12 décembre 1671, son corps fut enterré dans  l'église des Augustins de Louvain.
-Plempius, à Louvain, regrettait sans doute les Pays-Bas. Quoique catholique, il dit un jour[3]:
+Plempius, à Louvain, regrettait sans doute les Pays-Bas. Quoique catholique, il dit un jour:
 «  Si Messieurs des Etats veulent me donner une de leurs charges de Professeur en médecine à Leyde, je me ferais huguenot et j'irais demeurer chez eux. »
 </t>
         </is>
